--- a/data/trans_bre/KIDM_A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_A_R-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-7,94</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>66,63%</t>
+          <t>-86,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>-51,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-24,38%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,18</t>
+          <t>0,0; 8,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,04</t>
+          <t>-15,33; -2,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,91</t>
+          <t>-7,52; 2,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 1,78</t>
+          <t>0,0; 8,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,75; 205,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 334,31</t>
+          <t>-100,0; 45,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-73,79; 471,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 344,97</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-2,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-86,93%</t>
+          <t>66,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-51,12%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-24,38%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,19</t>
+          <t>-2,3; 2,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,33; -2,29</t>
+          <t>-0,9; 4,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 2,14</t>
+          <t>-1,36; 1,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,92</t>
+          <t>-2,32; 1,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,75; 205,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 45,1</t>
+          <t>-34,18; 334,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,79; 471,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 344,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/KIDM_A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_A_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-86,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-51,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,33; -2,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 2,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 45,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>-51,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>66,63%</t>
+          <t>-53,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>-34,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-24,38%</t>
+          <t>94,81%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,18</t>
+          <t>-4,81; 1,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,04</t>
+          <t>-6,73; 0,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,91</t>
+          <t>-3,22; 1,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 1,78</t>
+          <t>-2,03; 6,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,75; 205,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 334,31</t>
+          <t>-91,74; 41,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-73,79; 471,16</t>
+          <t>-90,56; 219,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 344,97</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>122,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,29%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-8,41%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>-73,71%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,44</t>
+          <t>-0,67; 4,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,94</t>
+          <t>-1,55; 5,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,49</t>
+          <t>-1,83; 2,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,68</t>
+          <t>-3,73; 0,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,28; 238,28</t>
+          <t>-61,72; 1043,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,81; 83,02</t>
+          <t>-45,96; 344,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,16; 184,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 318,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-12,29%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-8,41%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 2,19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 2,09</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 1,39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,82; 1,92</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-59,88; 237,61</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-60,77; 80,56</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-72,35; 181,19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-87,53; 454,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/KIDM_A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_A_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,62</t>
+          <t>-4,64; 1,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 0,58</t>
+          <t>-6,48; 0,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,47</t>
+          <t>-3,56; 1,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 6,53</t>
+          <t>-1,91; 6,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 361,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-91,74; 41,48</t>
+          <t>-91,05; 51,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-90,56; 219,02</t>
+          <t>-88,54; 207,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,32 +968,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 4,07</t>
+          <t>-0,87; 3,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 5,17</t>
+          <t>-1,79; 4,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,67</t>
+          <t>-1,61; 2,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 0,33</t>
+          <t>-3,48; 0,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,72; 1043,98</t>
+          <t>-68,65; 834,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 344,79</t>
+          <t>-51,91; 363,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,19</t>
+          <t>-1,38; 2,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,09</t>
+          <t>-2,87; 2,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,39</t>
+          <t>-1,8; 1,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,92</t>
+          <t>-2,01; 1,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-59,88; 237,61</t>
+          <t>-56,04; 249,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-60,77; 80,56</t>
+          <t>-59,99; 86,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-72,35; 181,19</t>
+          <t>-70,71; 205,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-87,53; 454,47</t>
+          <t>-89,78; 448,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/KIDM_A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_A_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>99,01%</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,64</t>
+          <t>-4,91; 1,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,63</t>
+          <t>-6,37; 0,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 1,48</t>
+          <t>-3,72; 1,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 6,34</t>
+          <t>-1,62; 6,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 361,76</t>
+          <t>-100,0; 433,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-91,05; 51,23</t>
+          <t>-89,91; 53,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-88,54; 207,64</t>
+          <t>-90,91; 201,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-73,71%</t>
+          <t>-73,96%</t>
         </is>
       </c>
     </row>
@@ -968,32 +968,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,68</t>
+          <t>-0,8; 3,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 4,96</t>
+          <t>-1,57; 4,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,68</t>
+          <t>-1,85; 2,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,37</t>
+          <t>-3,3; 0,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,65; 834,42</t>
+          <t>-57,24; 944,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,91; 363,38</t>
+          <t>-43,24; 345,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>-4,03%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,22</t>
+          <t>-1,57; 2,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,02</t>
+          <t>-2,83; 1,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,39</t>
+          <t>-1,87; 1,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 1,75</t>
+          <t>-2,09; 1,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 249,74</t>
+          <t>-62,28; 238,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-59,99; 86,77</t>
+          <t>-58,81; 83,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-70,71; 205,76</t>
+          <t>-71,16; 184,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-89,78; 448,94</t>
+          <t>-100,0; 318,49</t>
         </is>
       </c>
     </row>
